--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -119,10 +119,40 @@
     <t>* Les période du mardi matin sont obligatoires. Les autres seront réservés aux questions et rencontres</t>
   </si>
   <si>
-    <t>Exploration et apprentissage du Canvas</t>
-  </si>
-  <si>
     <t>10h</t>
+  </si>
+  <si>
+    <t>Animation sur Canvas</t>
+  </si>
+  <si>
+    <t>Création et changement d'aactivité pour arrivé dans les menus</t>
+  </si>
+  <si>
+    <t>charger les données dans la BD SQLite</t>
+  </si>
+  <si>
+    <t>2 heures</t>
+  </si>
+  <si>
+    <t>1 heure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup du git et partage avec l'enseignant </t>
+  </si>
+  <si>
+    <t>Apprentissage du Canvas pour les animations</t>
+  </si>
+  <si>
+    <t>mise en pratique par rotation d'une image</t>
+  </si>
+  <si>
+    <t>2 heure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apprentissage du Kotlin et des méthode d'animations intégré </t>
+  </si>
+  <si>
+    <t>3 heures</t>
   </si>
 </sst>
 </file>
@@ -266,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1574,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,24 +1663,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,24 +1879,48 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43178</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="23">
+        <v>43179</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="23">
+        <v>43180</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="23">
+        <v>43180</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -119,24 +119,6 @@
     <t>* Les période du mardi matin sont obligatoires. Les autres seront réservés aux questions et rencontres</t>
   </si>
   <si>
-    <t>10h</t>
-  </si>
-  <si>
-    <t>Animation sur Canvas</t>
-  </si>
-  <si>
-    <t>Création et changement d'aactivité pour arrivé dans les menus</t>
-  </si>
-  <si>
-    <t>charger les données dans la BD SQLite</t>
-  </si>
-  <si>
-    <t>2 heures</t>
-  </si>
-  <si>
-    <t>1 heure</t>
-  </si>
-  <si>
     <t xml:space="preserve">Setup du git et partage avec l'enseignant </t>
   </si>
   <si>
@@ -146,13 +128,25 @@
     <t>mise en pratique par rotation d'une image</t>
   </si>
   <si>
-    <t>2 heure</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apprentissage du Kotlin et des méthode d'animations intégré </t>
   </si>
   <si>
-    <t>3 heures</t>
+    <t>Test d'animation sur Kotlin</t>
+  </si>
+  <si>
+    <t>Apprentissage de Kotlin et test d'animation</t>
+  </si>
+  <si>
+    <t>création des menu et application de jeu</t>
+  </si>
+  <si>
+    <t>Sauvegarde des données dans la BD et chargement pour les stats du joueur</t>
+  </si>
+  <si>
+    <t>Test de translation et de tire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abandon des translation/rotation en même temps, les animations coche si elle sont ajouté à une rotation </t>
   </si>
 </sst>
 </file>
@@ -333,6 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -348,7 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1606,7 +1600,7 @@
   <dimension ref="A6:C36"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1674,18 +1668,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="C17" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
@@ -1702,13 +1700,13 @@
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,10 +1789,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>0</v>
@@ -1803,7 +1801,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="str">
         <f>IF(C21+C34&lt;90,"Il manque "&amp;90-(C21+C34)&amp;"h",IF(C21+C34&gt;90,"Il y a "&amp;(C21+C34)-90&amp;"h de trop",""))</f>
-        <v>Il manque 90h</v>
+        <v>Il manque 45h</v>
       </c>
     </row>
   </sheetData>
@@ -1821,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,54 +1881,66 @@
         <v>43178</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="18">
         <v>43179</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>43180</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>43180</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>43185</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
-        <v>43180</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>43180</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>43186</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -2018,13 +2028,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2046,22 +2056,24 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2253,10 +2265,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2281,22 +2293,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2486,10 +2498,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2514,22 +2526,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2719,10 +2731,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2747,22 +2759,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">Abandon des translation/rotation en même temps, les animations coche si elle sont ajouté à une rotation </t>
+  </si>
+  <si>
+    <t>Fonction de tire et de création de balle pour attaquer l'ennemi</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1819,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1931,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1939,13 +1942,19 @@
         <v>41</v>
       </c>
       <c r="C19" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18">
+        <v>43186</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -2034,7 +2043,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2047,7 +2056,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -2090,7 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2325,7 +2336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2558,7 +2569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -149,7 +149,46 @@
     <t xml:space="preserve">Abandon des translation/rotation en même temps, les animations coche si elle sont ajouté à une rotation </t>
   </si>
   <si>
-    <t>Fonction de tire et de création de balle pour attaquer l'ennemi</t>
+    <t>Creation des tours</t>
+  </si>
+  <si>
+    <t>Creations des ennemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation des munitions </t>
+  </si>
+  <si>
+    <t>Calcul de la fonction inRange pour les distance entre l'ennemis et les tours</t>
+  </si>
+  <si>
+    <t>Prototype d'attaque implémenter</t>
+  </si>
+  <si>
+    <t>Implémentation des déplacement des ennemies</t>
+  </si>
+  <si>
+    <t>Prototype d'attaque 2.0 pour attaquer le target de la tour</t>
+  </si>
+  <si>
+    <t>Modification du déplacement ennemi et modification des animations</t>
+  </si>
+  <si>
+    <t>Création de plusieurs ennemis un après l'autre et déplacement de chacun</t>
+  </si>
+  <si>
+    <t>Modification de l'attaque pour attaquer chaques ennemis de la liste</t>
+  </si>
+  <si>
+    <t>Correction du bug qui crash l'app lorsque les différents ennemis apparaissent</t>
+  </si>
+  <si>
+    <t>Plusieurs échecs lors de tentative d'amélioration ou d'optimisations</t>
+  </si>
+  <si>
+    <t>Correction du bug d'ajout d'ennemis dans la liste de chaque tours</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1600,9 +1639,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:C36"/>
+  <dimension ref="A6:D36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1666,7 +1705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -1677,7 +1716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>3</v>
       </c>
@@ -1687,22 +1726,25 @@
       <c r="C18" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>4</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>5</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
@@ -1712,19 +1754,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
@@ -1735,49 +1777,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>1</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>2</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>3</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>4</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>5</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>6</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>7</v>
       </c>
@@ -1822,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1950,7 +1992,7 @@
         <v>43186</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C20" s="15">
         <v>4</v>
@@ -2102,7 +2144,7 @@
   <dimension ref="A6:C47"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,55 +2202,95 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -2282,7 +2364,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2295,7 +2377,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -2304,7 +2388,9 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="22"/>
@@ -2336,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,8 +2481,12 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="15">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2515,7 +2605,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -140,9 +140,6 @@
     <t>création des menu et application de jeu</t>
   </si>
   <si>
-    <t>Sauvegarde des données dans la BD et chargement pour les stats du joueur</t>
-  </si>
-  <si>
     <t>Test de translation et de tire</t>
   </si>
   <si>
@@ -188,7 +185,28 @@
     <t>Correction du bug d'ajout d'ennemis dans la liste de chaque tours</t>
   </si>
   <si>
-    <t>S</t>
+    <t>Création des options de jeu et mise en place de fonctionnalité</t>
+  </si>
+  <si>
+    <t>Sauvegarde des données dans la BD et upgrade des tours mise en place</t>
+  </si>
+  <si>
+    <t>Correction des déplacements ennemies</t>
+  </si>
+  <si>
+    <t>Correction du bug de tire des tours</t>
+  </si>
+  <si>
+    <t>Mise en place des fonctionnalité des tours multiples</t>
+  </si>
+  <si>
+    <t>Beaucoup de correction de bug sur l'itération 3</t>
+  </si>
+  <si>
+    <t>T'entative de correction pour le tire trop rapide des tours</t>
+  </si>
+  <si>
+    <t>Tentative du correction du bug tire malgré les enemis en dehors de portée</t>
   </si>
 </sst>
 </file>
@@ -1639,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:D36"/>
+  <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,10 +1720,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -1713,60 +1731,61 @@
         <v>39</v>
       </c>
       <c r="C17" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>5</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
@@ -1777,49 +1796,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>1</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>2</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>3</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>4</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>5</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>6</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>7</v>
       </c>
@@ -1846,7 +1865,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="str">
         <f>IF(C21+C34&lt;90,"Il manque "&amp;90-(C21+C34)&amp;"h",IF(C21+C34&gt;90,"Il y a "&amp;(C21+C34)-90&amp;"h de trop",""))</f>
-        <v>Il manque 45h</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1864,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,7 +2000,7 @@
         <v>43186</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="15">
         <v>3</v>
@@ -1992,7 +2011,7 @@
         <v>43186</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="15">
         <v>4</v>
@@ -2110,7 +2129,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2143,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B47"/>
+    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,7 +2222,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
@@ -2212,7 +2231,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="15">
         <v>2</v>
@@ -2221,7 +2240,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
@@ -2232,7 +2251,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="15">
         <v>2</v>
@@ -2241,7 +2260,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -2250,7 +2269,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
@@ -2259,7 +2278,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="15">
         <v>3</v>
@@ -2268,7 +2287,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
@@ -2277,7 +2296,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="15">
         <v>3</v>
@@ -2286,7 +2305,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="15">
         <v>3</v>
@@ -2378,7 +2397,7 @@
         <v>29</v>
       </c>
       <c r="B40" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2389,7 +2408,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2422,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2501,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="15">
         <v>10</v>
@@ -2490,18 +2509,30 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -2605,7 +2636,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2618,7 +2649,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
@@ -2627,7 +2660,9 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="22"/>
@@ -2659,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,17 +2753,24 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
       <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2838,7 +2880,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2851,7 +2893,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
